--- a/excelImportAsp/Import/StudentRecords.xlsx
+++ b/excelImportAsp/Import/StudentRecords.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Roll No</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>C1</t>
+  </si>
+  <si>
+    <t>Y9100</t>
+  </si>
+  <si>
+    <t>Rico</t>
+  </si>
+  <si>
+    <t>TE</t>
   </si>
 </sst>
 </file>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,6 +553,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
